--- a/Projeto 2/intel.xlsx
+++ b/Projeto 2/intel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rod_c\Documents\GitHub\CD17\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rod_c\Documents\GitHub\ciencia_dados\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1340,14 +1340,14 @@
     <t>irrelevante</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,6 +1367,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1407,12 +1416,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,9 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4177,6 +4187,7 @@
     <hyperlink ref="A84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4184,9 +4195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4195,7 +4204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B1" t="s">
@@ -5804,5 +5813,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projeto 2/intel.xlsx
+++ b/Projeto 2/intel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
